--- a/dox/symbol parser.xlsx
+++ b/dox/symbol parser.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="22770" windowHeight="10290" activeTab="2"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="HEX LIST" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="RU CP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="374">
   <si>
     <t>[0</t>
   </si>
@@ -900,12 +900,6 @@
     <t/>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
     <t>//_10_</t>
   </si>
   <si>
@@ -1023,20 +1017,134 @@
     <t>20</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>//и</t>
+  </si>
+  <si>
+    <t>//й</t>
+  </si>
+  <si>
+    <t>//к</t>
+  </si>
+  <si>
+    <t>//л</t>
+  </si>
+  <si>
+    <t>//м</t>
+  </si>
+  <si>
+    <t>//н</t>
+  </si>
+  <si>
+    <t>//т</t>
+  </si>
+  <si>
+    <t>//п</t>
+  </si>
+  <si>
+    <t>//ч</t>
+  </si>
+  <si>
+    <t>//ш</t>
+  </si>
+  <si>
+    <t>//ъ</t>
+  </si>
+  <si>
+    <t>//ы</t>
+  </si>
+  <si>
+    <t>//ь</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>//э</t>
+  </si>
+  <si>
+    <t>//ю</t>
+  </si>
+  <si>
+    <t>//я</t>
+  </si>
+  <si>
+    <t>[27</t>
+  </si>
+  <si>
+    <t>//,,</t>
+  </si>
+  <si>
+    <t>//ио</t>
+  </si>
+  <si>
+    <t>//¿</t>
+  </si>
+  <si>
+    <t>//£</t>
+  </si>
+  <si>
+    <t>[20</t>
+  </si>
+  <si>
+    <t>// ↑</t>
+  </si>
+  <si>
+    <t>//II</t>
+  </si>
+  <si>
+    <t>//↓</t>
+  </si>
+  <si>
+    <t>[16</t>
+  </si>
+  <si>
+    <t>//|&lt;</t>
+  </si>
+  <si>
+    <t>[1</t>
+  </si>
+  <si>
+    <t>//&gt;|</t>
+  </si>
+  <si>
+    <t>//д</t>
+  </si>
+  <si>
+    <t>//ф</t>
+  </si>
+  <si>
+    <t>//ц</t>
+  </si>
+  <si>
+    <t>//щ</t>
+  </si>
+  <si>
+    <t>[9</t>
+  </si>
+  <si>
+    <t>//..</t>
+  </si>
+  <si>
+    <t>Excel ROW:</t>
+  </si>
+  <si>
+    <t>VSC code</t>
+  </si>
+  <si>
+    <t>Excel cell value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,8 +1196,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,6 +1223,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1356,9 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1370,6 +1509,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1418,6 +1567,139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="008080"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Save new symbol and copy VSC template</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>180976</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66676</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Clear new symbol matrix</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1707,6 +1989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:U242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1834,27 +2117,27 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" ref="K3:O10" si="1">MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
         <v>0</v>
       </c>
       <c r="L3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3" s="14" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" ref="P3:P10" si="2">DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
         <v>00000</v>
       </c>
       <c r="Q3" s="4"/>
@@ -1883,27 +2166,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O4" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10010</v>
       </c>
       <c r="Q4" s="4"/>
@@ -1939,27 +2222,27 @@
         <v>3</v>
       </c>
       <c r="K5" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10101</v>
       </c>
       <c r="Q5" s="4"/>
@@ -2000,27 +2283,27 @@
         <v>4</v>
       </c>
       <c r="K6" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P6" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10101</v>
       </c>
       <c r="Q6" s="4"/>
@@ -2059,27 +2342,27 @@
         <v>5</v>
       </c>
       <c r="K7" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>11101</v>
       </c>
       <c r="Q7" s="4"/>
@@ -2116,27 +2399,27 @@
         <v>6</v>
       </c>
       <c r="K8" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10101</v>
       </c>
       <c r="Q8" s="4"/>
@@ -2184,27 +2467,27 @@
         <v>7</v>
       </c>
       <c r="K9" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P9" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10101</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2241,27 +2524,27 @@
         <v>8</v>
       </c>
       <c r="K10" s="18" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L10" s="19" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="19" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="19" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="20" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$254,$S$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>10010</v>
       </c>
       <c r="Q10" s="4"/>
@@ -2546,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" ref="L20:O20" si="1">L3</f>
+        <f t="shared" ref="L20:O20" si="3">L3</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" t="s">
@@ -2599,23 +2882,23 @@
         <v>274</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" ref="K21:O21" si="2">K4</f>
+        <f t="shared" ref="K21:O21" si="4">K4</f>
         <v>1</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2656,23 +2939,23 @@
         <v>274</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f t="shared" ref="K22:O22" si="3">K5</f>
+        <f t="shared" ref="K22:O22" si="5">K5</f>
         <v>1</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -2711,23 +2994,23 @@
         <v>274</v>
       </c>
       <c r="K23" s="2" t="str">
-        <f t="shared" ref="K23:O23" si="4">K6</f>
+        <f t="shared" ref="K23:O23" si="6">K6</f>
         <v>1</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -2758,23 +3041,23 @@
         <v>274</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f t="shared" ref="K24:O24" si="5">K7</f>
+        <f t="shared" ref="K24:O24" si="7">K7</f>
         <v>1</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -2813,23 +3096,23 @@
         <v>274</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f t="shared" ref="K25:O25" si="6">K8</f>
+        <f t="shared" ref="K25:O25" si="8">K8</f>
         <v>1</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -2868,23 +3151,23 @@
         <v>274</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" ref="K26:O26" si="7">K9</f>
+        <f t="shared" ref="K26:O26" si="9">K9</f>
         <v>1</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -2921,23 +3204,23 @@
         <v>274</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" ref="K27:O27" si="8">K10</f>
+        <f t="shared" ref="K27:O27" si="10">K10</f>
         <v>1</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -2974,23 +3257,23 @@
         <v>274</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" ref="K28:O28" si="9">K11</f>
+        <f t="shared" ref="K28:O28" si="11">K11</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -9293,6 +9576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9387,11 +9671,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:AI289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24:AI24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,7 +9691,7 @@
     <col min="16" max="16" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2" style="1" bestFit="1" customWidth="1"/>
@@ -9417,7 +9702,7 @@
     <col min="32" max="32" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5703125" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -9472,7 +9757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>253</v>
       </c>
@@ -9488,32 +9773,32 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="14" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$256,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f t="shared" ref="L3:O10" si="1">MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$256,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>00000</v>
+        <f t="shared" ref="P3:P10" si="2">DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
+        <v>10001</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
@@ -9528,33 +9813,33 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K10" si="3">MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$256,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>00100</v>
+        <f t="shared" si="2"/>
+        <v>10001</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>253</v>
       </c>
@@ -9569,40 +9854,40 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P5" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>01110</v>
+        <f t="shared" si="2"/>
+        <v>10001</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="28" t="s">
+      <c r="R5" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S5" s="33"/>
+      <c r="T5" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>253</v>
       </c>
@@ -9617,40 +9902,40 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>01110</v>
+        <f t="shared" si="2"/>
+        <v>01111</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="33"/>
+      <c r="T6" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>253</v>
       </c>
@@ -9665,33 +9950,33 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P7" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>01110</v>
+        <f t="shared" si="2"/>
+        <v>00001</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>253</v>
       </c>
@@ -9706,41 +9991,41 @@
       <c r="J8" s="5">
         <v>6</v>
       </c>
-      <c r="K8" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>11111</v>
+        <f t="shared" si="2"/>
+        <v>00001</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="1">
+      <c r="R8" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="S8" s="33"/>
+      <c r="T8" s="36">
         <f>HEX2DEC($T$6)*16+HEX2DEC($T$5)</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -9755,33 +10040,33 @@
       <c r="J9" s="5">
         <v>7</v>
       </c>
-      <c r="K9" s="15" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="16" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="17" t="str">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
-        <v>0</v>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="str">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
-        <v>00100</v>
+        <f t="shared" si="2"/>
+        <v>00001</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -9796,28 +10081,28 @@
       <c r="J10" s="5">
         <v>8</v>
       </c>
-      <c r="K10" s="18" t="e">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="K10" s="12" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L10" s="19" t="e">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="L10" s="12" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="19" t="e">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="M10" s="12" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="19" t="e">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="N10" s="12" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="20" t="e">
-        <f>MID(DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$239,$T$8,ROW()-2),"[",""),"]",""),5),COLUMN()-10,1)</f>
+      <c r="O10" s="12" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="P10" s="6" t="e">
-        <f>DEC2BIN(SUBSTITUTE(SUBSTITUTE(INDEX($A$1:$H$301,$T$8,ROW()-2),"[",""),"]",""),5)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q10" s="4"/>
@@ -9866,24 +10151,24 @@
         <v>274</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>K3</f>
-        <v>0</v>
+        <f t="shared" ref="K13:O21" si="4">K3</f>
+        <v>1</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f>L3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>M3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>N3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f>O3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>275</v>
@@ -9905,24 +10190,24 @@
         <v>274</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f>K4</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>L4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>M4</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>N4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f>O4</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>275</v>
@@ -9944,24 +10229,24 @@
         <v>274</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f>K5</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f>L5</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>M5</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f>N5</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>O5</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>275</v>
@@ -9983,24 +10268,24 @@
         <v>274</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>K6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f>L6</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>M6</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>N6</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>O6</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>275</v>
@@ -10022,24 +10307,24 @@
         <v>274</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f>K7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f>L7</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>M7</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f>N7</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f>O7</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>275</v>
@@ -10061,23 +10346,23 @@
         <v>274</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f>K8</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f>L8</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>M8</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f>N8</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>O8</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -10100,24 +10385,24 @@
         <v>274</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f>K9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f>L9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>M9</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f>N9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f>O9</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>275</v>
@@ -10139,23 +10424,23 @@
         <v>274</v>
       </c>
       <c r="K20" s="2" t="e">
-        <f>K10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L20" s="2" t="e">
-        <f>L10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="M20" s="2" t="e">
-        <f>M10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N20" s="2" t="e">
-        <f>N10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="O20" s="2" t="e">
-        <f>O10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -10178,23 +10463,23 @@
         <v>274</v>
       </c>
       <c r="K21" s="2">
-        <f>K11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>L11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <f>M11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f>N11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>O11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -10228,7 +10513,7 @@
       <c r="I23" s="8"/>
       <c r="T23" s="23">
         <f>BIN2DEC(CONCATENATE($K$24,$L$24,$M$24,$N$24,$O$24))</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U23" s="24" t="str">
         <f>IF(V23="","",",")</f>
@@ -10236,7 +10521,7 @@
       </c>
       <c r="V23" s="23">
         <f>BIN2DEC(CONCATENATE($K$25,$L$25,$M$25,$N$25,$O$25))</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="W23" s="24" t="str">
         <f>IF(X23="","",",")</f>
@@ -10244,7 +10529,7 @@
       </c>
       <c r="X23" s="23">
         <f>BIN2DEC(CONCATENATE($K$26,$L$26,$M$26,$N$26,$O$26))</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Y23" s="24" t="str">
         <f>IF(Z23="","",",")</f>
@@ -10252,7 +10537,7 @@
       </c>
       <c r="Z23" s="23">
         <f>BIN2DEC(CONCATENATE($K$27,$L$27,$M$27,$N$27,$O$27))</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AA23" s="24" t="str">
         <f>IF(AB23="","",",")</f>
@@ -10260,7 +10545,7 @@
       </c>
       <c r="AB23" s="23">
         <f>BIN2DEC(CONCATENATE($K$28,$L$28,$M$28,$N$28,$O$28))</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AC23" s="24" t="str">
         <f>IF(AD23="","",",")</f>
@@ -10268,7 +10553,7 @@
       </c>
       <c r="AD23" s="23">
         <f>BIN2DEC(CONCATENATE($K$29,$L$29,$M$29,$N$29,$O$29))</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AE23" s="24" t="str">
         <f>IF(AF23="","",",")</f>
@@ -10276,7 +10561,7 @@
       </c>
       <c r="AF23" s="23">
         <f>BIN2DEC(CONCATENATE($K$30,$L$30,$M$30,$N$30,$O$30))</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AG23" s="24" t="str">
         <f>IF(AH23="","",",")</f>
@@ -10284,7 +10569,7 @@
       </c>
       <c r="AH23" s="23">
         <f>BIN2DEC(CONCATENATE($K$31,$L$31,$M$31,$N$31,$O$31))</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10302,33 +10587,33 @@
       <c r="J24" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="32">
-        <v>0</v>
-      </c>
-      <c r="L24" s="32">
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
-        <v>0</v>
-      </c>
-      <c r="N24" s="32">
-        <v>0</v>
-      </c>
-      <c r="O24" s="32">
-        <v>0</v>
+      <c r="K24" s="31">
+        <v>1</v>
+      </c>
+      <c r="L24" s="31">
+        <v>1</v>
+      </c>
+      <c r="M24" s="31">
+        <v>1</v>
+      </c>
+      <c r="N24" s="31">
+        <v>1</v>
+      </c>
+      <c r="O24" s="31">
+        <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="S24" s="27" t="s">
         <v>274</v>
       </c>
       <c r="T24" s="23">
         <f>IF(AND(U24="",T23=0),"",T23)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U24" s="24" t="str">
         <f>IF(V24="","",",")</f>
@@ -10336,7 +10621,7 @@
       </c>
       <c r="V24" s="23">
         <f>IF(AND(W24="",V23=0),"",V23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="W24" s="24" t="str">
         <f>IF(X24="","",",")</f>
@@ -10344,7 +10629,7 @@
       </c>
       <c r="X24" s="23">
         <f>IF(AND(Y24="",X23=0),"",X23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="24" t="str">
         <f>IF(Z24="","",",")</f>
@@ -10352,7 +10637,7 @@
       </c>
       <c r="Z24" s="23">
         <f>IF(AND(AA24="",Z23=0),"",Z23)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AA24" s="24" t="str">
         <f>IF(AB24="","",",")</f>
@@ -10360,7 +10645,7 @@
       </c>
       <c r="AB24" s="23">
         <f>IF(AND(AC24="",AB23=0),"",AB23)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AC24" s="24" t="str">
         <f>IF(AD24="","",",")</f>
@@ -10368,7 +10653,7 @@
       </c>
       <c r="AD24" s="23">
         <f>IF(AND(AE24="",AD23=0),"",AD23)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AE24" s="24" t="str">
         <f>IF(AF24="","",",")</f>
@@ -10376,15 +10661,15 @@
       </c>
       <c r="AF24" s="23">
         <f>IF(AND(AG24="",AF23=0),"",AF23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AG24" s="24" t="str">
         <f>IF(AH24="","",",")</f>
-        <v/>
-      </c>
-      <c r="AH24" s="23" t="str">
+        <v>,</v>
+      </c>
+      <c r="AH24" s="23">
         <f>IF(AND(AI24="],",AH23=0),"",AH23)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="AI24" s="25" t="s">
         <v>288</v>
@@ -10405,19 +10690,19 @@
       <c r="J25" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="32">
-        <v>1</v>
-      </c>
-      <c r="L25" s="32">
-        <v>0</v>
-      </c>
-      <c r="M25" s="32">
-        <v>0</v>
-      </c>
-      <c r="N25" s="32">
-        <v>0</v>
-      </c>
-      <c r="O25" s="32">
+      <c r="K25" s="31">
+        <v>1</v>
+      </c>
+      <c r="L25" s="31">
+        <v>1</v>
+      </c>
+      <c r="M25" s="31">
+        <v>1</v>
+      </c>
+      <c r="N25" s="31">
+        <v>1</v>
+      </c>
+      <c r="O25" s="31">
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -10440,19 +10725,19 @@
       <c r="J26" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="32">
-        <v>1</v>
-      </c>
-      <c r="L26" s="32">
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
-        <v>0</v>
-      </c>
-      <c r="N26" s="32">
-        <v>0</v>
-      </c>
-      <c r="O26" s="32">
+      <c r="K26" s="31">
+        <v>1</v>
+      </c>
+      <c r="L26" s="31">
+        <v>1</v>
+      </c>
+      <c r="M26" s="31">
+        <v>1</v>
+      </c>
+      <c r="N26" s="31">
+        <v>1</v>
+      </c>
+      <c r="O26" s="31">
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -10460,40 +10745,40 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="22" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="S26" s="27"/>
       <c r="T26" s="24" t="str">
         <f>CONCATENATE("[",IF(AND(T23=0,U26=""),"",T23))</f>
-        <v>[0</v>
+        <v>[31</v>
       </c>
       <c r="U26" s="24">
         <f>IF(AND(V23=0,V26=""),"",V23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="V26" s="24">
         <f>IF(AND(X23=0,W26=""),"",X23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="W26" s="24">
         <f>IF(AND(Z23=0,X26=""),"",Z23)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="X26" s="24">
         <f>IF(AND(AB23=0,Y26=""),"",AB23)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Y26" s="24">
         <f>IF(AND(AD23=0,Z26=""),"",AD23)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Z26" s="24">
         <f>IF(AND(AF23=0,AA26="]"),"",AF23)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AA26" s="24" t="str">
         <f>CONCATENATE(IF(AND(AH23=0,AB26=""),"",AH23),"]")</f>
-        <v>]</v>
+        <v>31]</v>
       </c>
       <c r="AB26" s="23"/>
       <c r="AC26" s="24"/>
@@ -10519,19 +10804,19 @@
       <c r="J27" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="32">
-        <v>1</v>
-      </c>
-      <c r="L27" s="32">
-        <v>0</v>
-      </c>
-      <c r="M27" s="32">
-        <v>0</v>
-      </c>
-      <c r="N27" s="32">
-        <v>1</v>
-      </c>
-      <c r="O27" s="32">
+      <c r="K27" s="31">
+        <v>1</v>
+      </c>
+      <c r="L27" s="31">
+        <v>1</v>
+      </c>
+      <c r="M27" s="31">
+        <v>1</v>
+      </c>
+      <c r="N27" s="31">
+        <v>1</v>
+      </c>
+      <c r="O27" s="31">
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -10554,19 +10839,19 @@
       <c r="J28" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="K28" s="32">
-        <v>1</v>
-      </c>
-      <c r="L28" s="32">
-        <v>0</v>
-      </c>
-      <c r="M28" s="32">
-        <v>1</v>
-      </c>
-      <c r="N28" s="32">
-        <v>0</v>
-      </c>
-      <c r="O28" s="32">
+      <c r="K28" s="31">
+        <v>1</v>
+      </c>
+      <c r="L28" s="31">
+        <v>1</v>
+      </c>
+      <c r="M28" s="31">
+        <v>1</v>
+      </c>
+      <c r="N28" s="31">
+        <v>1</v>
+      </c>
+      <c r="O28" s="31">
         <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -10589,19 +10874,19 @@
       <c r="J29" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="K29" s="32">
-        <v>1</v>
-      </c>
-      <c r="L29" s="32">
-        <v>1</v>
-      </c>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="32">
-        <v>0</v>
-      </c>
-      <c r="O29" s="32">
+      <c r="K29" s="31">
+        <v>1</v>
+      </c>
+      <c r="L29" s="31">
+        <v>1</v>
+      </c>
+      <c r="M29" s="31">
+        <v>1</v>
+      </c>
+      <c r="N29" s="31">
+        <v>1</v>
+      </c>
+      <c r="O29" s="31">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -10624,19 +10909,19 @@
       <c r="J30" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="K30" s="32">
-        <v>1</v>
-      </c>
-      <c r="L30" s="32">
-        <v>0</v>
-      </c>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="32">
+      <c r="K30" s="31">
+        <v>1</v>
+      </c>
+      <c r="L30" s="31">
+        <v>1</v>
+      </c>
+      <c r="M30" s="31">
+        <v>1</v>
+      </c>
+      <c r="N30" s="31">
+        <v>1</v>
+      </c>
+      <c r="O30" s="31">
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -10659,27 +10944,27 @@
       <c r="J31" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="K31" s="32">
-        <v>0</v>
-      </c>
-      <c r="L31" s="32">
-        <v>0</v>
-      </c>
-      <c r="M31" s="32">
-        <v>0</v>
-      </c>
-      <c r="N31" s="32">
-        <v>0</v>
-      </c>
-      <c r="O31" s="32">
-        <v>0</v>
+      <c r="K31" s="31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="31">
+        <v>1</v>
+      </c>
+      <c r="N31" s="31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="31">
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>275</v>
       </c>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>253</v>
       </c>
@@ -10700,7 +10985,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -10735,7 +11020,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -10762,7 +11047,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -10797,7 +11082,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -10832,7 +11117,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -10867,7 +11152,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -10902,7 +11187,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -10929,7 +11214,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -10964,7 +11249,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -10999,7 +11284,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -11032,7 +11317,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -11065,7 +11350,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -11100,7 +11385,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11414,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -11164,7 +11449,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -11197,7 +11482,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -11232,7 +11517,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -11267,7 +11552,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -11302,7 +11587,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -11337,7 +11622,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -11372,7 +11657,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -11407,7 +11692,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -11442,7 +11727,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -11477,7 +11762,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -11512,7 +11797,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -11547,7 +11832,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -11580,7 +11865,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -11615,7 +11900,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -11650,7 +11935,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -11681,7 +11966,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -11716,7 +12001,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -11751,7 +12036,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -11786,7 +12071,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -11821,7 +12106,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -11856,7 +12141,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -11891,7 +12176,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -11926,7 +12211,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -11961,7 +12246,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -11996,7 +12281,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -12031,7 +12316,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -12066,7 +12351,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -12101,7 +12386,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -12136,7 +12421,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -12171,7 +12456,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -12206,7 +12491,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -12241,7 +12526,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -12276,7 +12561,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -12311,7 +12596,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -12346,7 +12631,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -12381,7 +12666,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -12416,7 +12701,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -12451,7 +12736,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -12486,7 +12771,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -12521,7 +12806,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -12556,7 +12841,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -12591,7 +12876,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -12626,7 +12911,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -12661,7 +12946,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -12696,7 +12981,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>0</v>
       </c>
@@ -12731,7 +13016,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -12745,7 +13030,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F92" s="8">
         <v>21</v>
@@ -12766,7 +13051,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -12801,7 +13086,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -12828,7 +13113,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -12863,7 +13148,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -12890,7 +13175,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -12925,7 +13210,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -12960,7 +13245,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -12995,7 +13280,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -13030,7 +13315,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -13065,7 +13350,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -13100,7 +13385,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -13135,7 +13420,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -13170,7 +13455,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -13205,7 +13490,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -13240,7 +13525,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -13275,7 +13560,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -13310,7 +13595,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -13345,7 +13630,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -13380,7 +13665,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -13415,7 +13700,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -13450,7 +13735,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -13485,7 +13770,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -13520,7 +13805,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -13555,7 +13840,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -13590,7 +13875,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -13625,7 +13910,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -13660,7 +13945,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -13695,7 +13980,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -13730,7 +14015,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -13765,7 +14050,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -13800,9 +14085,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B123" s="8">
         <v>21</v>
@@ -13826,7 +14111,7 @@
         <v>275</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="1"/>
@@ -13835,9 +14120,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B124" s="8">
         <v>17</v>
@@ -13861,7 +14146,7 @@
         <v>275</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="1" t="s">
@@ -13872,9 +14157,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B125" s="8">
         <v>20</v>
@@ -13898,7 +14183,7 @@
         <v>275</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="1"/>
@@ -13907,7 +14192,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -13942,7 +14227,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -13968,7 +14253,7 @@
         <v>275</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="1"/>
@@ -13977,7 +14262,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>253</v>
       </c>
@@ -13996,7 +14281,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>253</v>
       </c>
@@ -14015,7 +14300,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>253</v>
       </c>
@@ -14034,7 +14319,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>253</v>
       </c>
@@ -14053,7 +14338,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>253</v>
       </c>
@@ -14072,7 +14357,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>253</v>
       </c>
@@ -14091,7 +14376,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>253</v>
       </c>
@@ -14110,7 +14395,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>253</v>
       </c>
@@ -14129,7 +14414,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>253</v>
       </c>
@@ -14148,7 +14433,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>253</v>
       </c>
@@ -14167,7 +14452,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>253</v>
       </c>
@@ -14186,7 +14471,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>253</v>
       </c>
@@ -14205,7 +14490,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>253</v>
       </c>
@@ -14224,7 +14509,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>253</v>
       </c>
@@ -14243,7 +14528,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>253</v>
       </c>
@@ -14262,7 +14547,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>253</v>
       </c>
@@ -14281,7 +14566,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>253</v>
       </c>
@@ -14300,7 +14585,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>253</v>
       </c>
@@ -14319,7 +14604,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>253</v>
       </c>
@@ -14338,7 +14623,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>253</v>
       </c>
@@ -14357,7 +14642,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>253</v>
       </c>
@@ -14376,7 +14661,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>253</v>
       </c>
@@ -14395,7 +14680,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>253</v>
       </c>
@@ -14414,7 +14699,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>253</v>
       </c>
@@ -14433,7 +14718,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>253</v>
       </c>
@@ -14452,7 +14737,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>253</v>
       </c>
@@ -14471,7 +14756,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>253</v>
       </c>
@@ -14490,7 +14775,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>253</v>
       </c>
@@ -14509,7 +14794,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>253</v>
       </c>
@@ -14528,7 +14813,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>253</v>
       </c>
@@ -14547,7 +14832,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>253</v>
       </c>
@@ -14566,7 +14851,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>253</v>
       </c>
@@ -14585,9 +14870,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B160" s="8">
         <v>17</v>
@@ -14608,7 +14893,7 @@
         <v>59</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="1"/>
@@ -14617,9 +14902,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B161" s="24">
         <v>17</v>
@@ -14640,8 +14925,8 @@
         <v>38</v>
       </c>
       <c r="H161" s="24"/>
-      <c r="I161" s="31" t="s">
-        <v>303</v>
+      <c r="I161" s="30" t="s">
+        <v>301</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="1"/>
@@ -14650,7 +14935,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>255</v>
       </c>
@@ -14658,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D162" s="8">
         <v>16</v>
@@ -14673,7 +14958,7 @@
         <v>59</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="1"/>
@@ -14682,9 +14967,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B163" s="8">
         <v>21</v>
@@ -14705,7 +14990,7 @@
         <v>128</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="1"/>
@@ -14714,9 +14999,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B164" s="8">
         <v>1</v>
@@ -14737,7 +15022,7 @@
         <v>59</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="1"/>
@@ -14746,7 +15031,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>260</v>
       </c>
@@ -14769,7 +15054,7 @@
         <v>57</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="1"/>
@@ -14778,7 +15063,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>255</v>
       </c>
@@ -14802,7 +15087,7 @@
       </c>
       <c r="H166" s="8"/>
       <c r="I166" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="1"/>
@@ -14811,7 +15096,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>254</v>
       </c>
@@ -14834,7 +15119,7 @@
         <v>133</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J167" s="5"/>
       <c r="K167" s="1"/>
@@ -14843,9 +15128,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B168" s="8">
         <v>17</v>
@@ -14866,7 +15151,7 @@
         <v>57</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J168" s="5"/>
       <c r="K168" s="1"/>
@@ -14875,7 +15160,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>260</v>
       </c>
@@ -14898,7 +15183,7 @@
         <v>38</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="1"/>
@@ -14907,12 +15192,12 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B170" s="8">
-        <v>21</v>
+        <v>263</v>
+      </c>
+      <c r="B170" s="5">
+        <v>14</v>
       </c>
       <c r="C170" s="8">
         <v>21</v>
@@ -14921,16 +15206,16 @@
         <v>21</v>
       </c>
       <c r="E170" s="8">
+        <v>21</v>
+      </c>
+      <c r="F170" s="8">
         <v>14</v>
       </c>
-      <c r="F170" s="8">
-        <v>4</v>
-      </c>
       <c r="G170" s="8" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="1"/>
@@ -14939,7 +15224,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>260</v>
       </c>
@@ -14962,7 +15247,7 @@
         <v>88</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="1"/>
@@ -14971,9 +15256,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B172" s="8">
         <v>21</v>
@@ -14994,7 +15279,7 @@
         <v>2</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="1"/>
@@ -15003,7 +15288,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>261</v>
       </c>
@@ -15026,7 +15311,7 @@
         <v>12</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="1"/>
@@ -15035,7 +15320,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>260</v>
       </c>
@@ -15058,7 +15343,7 @@
         <v>142</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="1"/>
@@ -15067,7 +15352,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>265</v>
       </c>
@@ -15090,7 +15375,7 @@
         <v>12</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="1"/>
@@ -15099,9 +15384,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B176" s="8">
         <v>21</v>
@@ -15122,7 +15407,7 @@
         <v>9</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="1"/>
@@ -15131,7 +15416,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>254</v>
       </c>
@@ -15154,7 +15439,7 @@
         <v>57</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="1"/>
@@ -15163,9 +15448,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B178" s="8">
         <v>12</v>
@@ -15187,7 +15472,7 @@
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J178" s="5"/>
       <c r="K178" s="1"/>
@@ -15196,7 +15481,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -15220,7 +15505,7 @@
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="1"/>
@@ -15229,7 +15514,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
@@ -15253,7 +15538,7 @@
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J180" s="5"/>
       <c r="K180" s="1"/>
@@ -15262,7 +15547,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>255</v>
       </c>
@@ -15286,7 +15571,7 @@
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J181" s="5"/>
       <c r="K181" s="1"/>
@@ -15321,7 +15606,7 @@
         <v>275</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="1"/>
@@ -15356,7 +15641,7 @@
         <v>275</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J183" s="5"/>
       <c r="K183" s="1"/>
@@ -15366,40 +15651,32 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="str">
-        <f>CONCATENATE("[",IF(AND(A181=0,B184=""),"",A181))</f>
-        <v>[[10</v>
+      <c r="A184" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="B184" s="24">
-        <f>IF(AND(C181=0,C184=""),"",C181)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C184" s="24">
-        <f>IF(AND(E181=0,D184=""),"",E181)</f>
-        <v>31</v>
-      </c>
-      <c r="D184" s="24" t="str">
-        <f>IF(AND(G181=0,E184=""),"",G181)</f>
-        <v>14]</v>
-      </c>
-      <c r="E184" s="24" t="str">
-        <f>IF(AND(I181=0,F184=""),"",I181)</f>
-        <v>//ё</v>
-      </c>
-      <c r="F184" s="24" t="str">
-        <f>IF(AND(K181=0,G184=""),"",K181)</f>
-        <v/>
-      </c>
-      <c r="G184" s="24" t="str">
-        <f>IF(AND(M181=0,H184="]"),"",M181)</f>
-        <v/>
-      </c>
-      <c r="H184" s="24" t="str">
-        <f>CONCATENATE(IF(AND(O181=0,I184=""),"",O181),"]")</f>
-        <v>]</v>
+        <v>17</v>
+      </c>
+      <c r="D184" s="24">
+        <v>19</v>
+      </c>
+      <c r="E184" s="24">
+        <v>21</v>
+      </c>
+      <c r="F184" s="24">
+        <v>25</v>
+      </c>
+      <c r="G184" s="24">
+        <v>17</v>
+      </c>
+      <c r="H184" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="1"/>
@@ -15410,31 +15687,31 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B185" s="8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C185" s="8">
         <v>17</v>
       </c>
       <c r="D185" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E185" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F185" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G185" s="8">
         <v>17</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="1"/>
@@ -15451,25 +15728,25 @@
         <v>0</v>
       </c>
       <c r="C186" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D186" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E186" s="8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F186" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G186" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7</v>
+        <v>275</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="1"/>
@@ -15483,28 +15760,28 @@
         <v>0</v>
       </c>
       <c r="B187" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C187" s="8">
+        <v>15</v>
+      </c>
+      <c r="D187" s="8">
+        <v>5</v>
+      </c>
+      <c r="E187" s="8">
+        <v>5</v>
+      </c>
+      <c r="F187" s="8">
+        <v>21</v>
+      </c>
+      <c r="G187" s="8">
         <v>9</v>
       </c>
-      <c r="D187" s="8">
-        <v>4</v>
-      </c>
-      <c r="E187" s="8">
-        <v>10</v>
-      </c>
-      <c r="F187" s="8">
-        <v>17</v>
-      </c>
-      <c r="G187" s="8">
-        <v>17</v>
-      </c>
       <c r="H187" s="8" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="J187" s="5"/>
       <c r="K187" s="1"/>
@@ -15521,20 +15798,25 @@
         <v>0</v>
       </c>
       <c r="C188" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D188" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E188" s="8">
         <v>21</v>
       </c>
-      <c r="F188" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H188" s="8"/>
+      <c r="F188" s="8">
+        <v>17</v>
+      </c>
+      <c r="G188" s="5">
+        <v>17</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="I188" s="8" t="s">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="J188" s="5"/>
       <c r="K188" s="1"/>
@@ -15551,25 +15833,25 @@
         <v>0</v>
       </c>
       <c r="C189" s="8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D189" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E189" s="8">
         <v>31</v>
       </c>
       <c r="F189" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G189" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="1"/>
@@ -15586,25 +15868,25 @@
         <v>0</v>
       </c>
       <c r="C190" s="8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D190" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E190" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F190" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G190" s="8">
         <v>17</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="1"/>
@@ -15618,27 +15900,29 @@
         <v>0</v>
       </c>
       <c r="B191" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C191" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D191" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E191" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F191" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G191" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I191" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="J191" s="5"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -15651,27 +15935,29 @@
         <v>0</v>
       </c>
       <c r="B192" s="8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C192" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D192" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E192" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F192" s="8">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G192" s="8">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I192" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="I192" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="J192" s="5"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -15679,33 +15965,33 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B193" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C193" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D193" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E193" s="8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F193" s="8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G193" s="8">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="J193" s="5"/>
       <c r="K193" s="1"/>
@@ -15714,33 +16000,33 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B194" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C194" s="8">
+        <v>24</v>
+      </c>
+      <c r="D194" s="8">
+        <v>8</v>
+      </c>
+      <c r="E194" s="8">
         <v>14</v>
       </c>
-      <c r="D194" s="8">
-        <v>20</v>
-      </c>
-      <c r="E194" s="8">
-        <v>20</v>
-      </c>
       <c r="F194" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G194" s="8">
         <v>14</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="J194" s="5"/>
       <c r="K194" s="1"/>
@@ -15749,33 +16035,33 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C195" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D195" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E195" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F195" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G195" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="1"/>
@@ -15784,7 +16070,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>0</v>
       </c>
@@ -15792,22 +16078,25 @@
         <v>0</v>
       </c>
       <c r="C196" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E196" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F196" s="8">
-        <v>14</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="G196" s="8">
+        <v>28</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="1"/>
@@ -15816,33 +16105,33 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B197" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C197" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D197" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E197" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F197" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G197" s="8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>167</v>
+        <v>349</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="1"/>
@@ -15851,33 +16140,33 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B198" s="8">
-        <v>4</v>
-      </c>
-      <c r="C198" s="8">
-        <v>4</v>
-      </c>
-      <c r="D198" s="8">
-        <v>4</v>
-      </c>
-      <c r="E198" s="8">
-        <v>0</v>
-      </c>
-      <c r="F198" s="8">
-        <v>4</v>
-      </c>
-      <c r="G198" s="8">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="1"/>
@@ -15885,34 +16174,35 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U198" s="26"/>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C199" s="8">
+        <v>15</v>
+      </c>
+      <c r="D199" s="8">
+        <v>17</v>
+      </c>
+      <c r="E199" s="8">
+        <v>15</v>
+      </c>
+      <c r="F199" s="8">
+        <v>5</v>
+      </c>
+      <c r="G199" s="8">
         <v>9</v>
       </c>
-      <c r="D199" s="8">
-        <v>4</v>
-      </c>
-      <c r="E199" s="8">
-        <v>10</v>
-      </c>
-      <c r="F199" s="8">
-        <v>4</v>
-      </c>
-      <c r="G199" s="8">
-        <v>18</v>
-      </c>
       <c r="H199" s="8" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="J199" s="5"/>
       <c r="K199" s="1"/>
@@ -15921,33 +16211,33 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B200" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C200" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D200" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E200" s="8">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F200" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G200" s="8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="1"/>
@@ -15956,33 +16246,33 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B201" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C201" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D201" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E201" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F201" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G201" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="1"/>
@@ -15991,33 +16281,33 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B202" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C202" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E202" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F202" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G202" s="8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="1"/>
@@ -16026,32 +16316,34 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="B203" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C203" s="8">
-        <v>5</v>
-      </c>
-      <c r="D203" s="8">
-        <v>10</v>
-      </c>
-      <c r="E203" s="8">
-        <v>20</v>
-      </c>
-      <c r="F203" s="8">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I203" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="J203" s="5"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -16059,33 +16351,33 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="B204" s="8">
+        <v>26</v>
+      </c>
+      <c r="C204" s="8">
+        <v>22</v>
+      </c>
+      <c r="D204" s="8">
         <v>18</v>
       </c>
-      <c r="C204" s="8">
-        <v>21</v>
-      </c>
-      <c r="D204" s="8">
-        <v>21</v>
-      </c>
       <c r="E204" s="8">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F204" s="8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G204" s="8">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="1"/>
@@ -16094,33 +16386,33 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="B205" s="8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C205" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D205" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E205" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F205" s="8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G205" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="1"/>
@@ -16129,33 +16421,33 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="B206" s="8">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C206" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D206" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E206" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F206" s="8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G206" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="1"/>
@@ -16164,26 +16456,34 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="B207" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C207" s="8">
         <v>8</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
+      <c r="D207" s="8">
+        <v>30</v>
+      </c>
+      <c r="E207" s="8">
+        <v>8</v>
+      </c>
+      <c r="F207" s="8">
+        <v>8</v>
+      </c>
+      <c r="G207" s="8">
+        <v>15</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I207" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="J207" s="5"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -16191,28 +16491,34 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="B208" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C208" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D208" s="8">
-        <v>18</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="8">
+        <v>0</v>
+      </c>
+      <c r="F208" s="8">
+        <v>4</v>
+      </c>
+      <c r="G208" s="8">
+        <v>4</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I208" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="J208" s="5"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -16225,13 +16531,13 @@
         <v>0</v>
       </c>
       <c r="B209" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C209" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D209" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E209" s="8">
         <v>4</v>
@@ -16240,13 +16546,13 @@
         <v>4</v>
       </c>
       <c r="G209" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="1"/>
@@ -16257,26 +16563,32 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="B210" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C210" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D210" s="8">
-        <v>8</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E210" s="8">
+        <v>10</v>
+      </c>
+      <c r="F210" s="8">
+        <v>0</v>
+      </c>
+      <c r="G210" s="8">
+        <v>14</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J210" s="5"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -16286,26 +16598,32 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="B211" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C211" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" s="8">
-        <v>2</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E211" s="8">
+        <v>10</v>
+      </c>
+      <c r="F211" s="8">
+        <v>0</v>
+      </c>
+      <c r="G211" s="8">
+        <v>10</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="J211" s="5"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -16315,31 +16633,31 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="B212" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C212" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D212" s="8">
+        <v>2</v>
+      </c>
+      <c r="E212" s="8">
+        <v>4</v>
+      </c>
+      <c r="F212" s="8">
+        <v>8</v>
+      </c>
+      <c r="G212" s="8">
         <v>16</v>
       </c>
-      <c r="E212" s="8">
-        <v>18</v>
-      </c>
-      <c r="F212" s="8">
-        <v>23</v>
-      </c>
-      <c r="G212" s="8">
-        <v>18</v>
-      </c>
       <c r="H212" s="8" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="1"/>
@@ -16353,28 +16671,28 @@
         <v>0</v>
       </c>
       <c r="B213" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C213" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D213" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E213" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F213" s="8">
-        <v>29</v>
-      </c>
-      <c r="G213" s="8">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="1"/>
@@ -16385,31 +16703,31 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="B214" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C214" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D214" s="8">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E214" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F214" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G214" s="8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="1"/>
@@ -16420,28 +16738,32 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="B215" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C215" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D215" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E215" s="8">
-        <v>12</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="F215" s="8">
+        <v>14</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
+        <v>293</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="J215" s="5"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -16451,31 +16773,31 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="B216" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C216" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D216" s="8">
         <v>10</v>
       </c>
       <c r="E216" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F216" s="8">
-        <v>21</v>
-      </c>
-      <c r="G216" s="8">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="1"/>
@@ -16486,26 +16808,32 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B217" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C217" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D217" s="8">
-        <v>8</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E217" s="8">
+        <v>4</v>
+      </c>
+      <c r="F217" s="8">
+        <v>4</v>
+      </c>
+      <c r="G217" s="8">
+        <v>4</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="J217" s="5"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -16515,31 +16843,31 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="B218" s="8">
+        <v>4</v>
+      </c>
+      <c r="C218" s="8">
+        <v>4</v>
+      </c>
+      <c r="D218" s="8">
+        <v>4</v>
+      </c>
+      <c r="E218" s="8">
+        <v>4</v>
+      </c>
+      <c r="F218" s="8">
+        <v>21</v>
+      </c>
+      <c r="G218" s="8">
         <v>14</v>
       </c>
-      <c r="C218" s="8">
-        <v>17</v>
-      </c>
-      <c r="D218" s="8">
-        <v>17</v>
-      </c>
-      <c r="E218" s="8">
-        <v>17</v>
-      </c>
-      <c r="F218" s="8">
-        <v>14</v>
-      </c>
-      <c r="G218" s="8">
-        <v>0</v>
-      </c>
       <c r="H218" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="1"/>
@@ -16550,30 +16878,32 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="B219" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C219" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D219" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E219" s="8">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F219" s="8">
-        <v>10</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>184</v>
+        <v>18</v>
+      </c>
+      <c r="G219" s="8">
+        <v>16</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I219" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="J219" s="5"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -16583,31 +16913,31 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="B220" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C220" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D220" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E220" s="8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F220" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G220" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="1"/>
@@ -16618,32 +16948,30 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="B221" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C221" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D221" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E221" s="8">
         <v>21</v>
       </c>
       <c r="F221" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G221" s="8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I221" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I221" s="8"/>
       <c r="J221" s="5"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -16653,32 +16981,30 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="B222" s="8">
+        <v>28</v>
+      </c>
+      <c r="C222" s="8">
+        <v>17</v>
+      </c>
+      <c r="D222" s="8">
+        <v>2</v>
+      </c>
+      <c r="E222" s="8">
+        <v>4</v>
+      </c>
+      <c r="F222" s="8">
         <v>8</v>
       </c>
-      <c r="C222" s="8">
-        <v>24</v>
-      </c>
-      <c r="D222" s="8">
-        <v>9</v>
-      </c>
-      <c r="E222" s="8">
-        <v>27</v>
-      </c>
-      <c r="F222" s="8">
-        <v>5</v>
-      </c>
       <c r="G222" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I222" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I222" s="8"/>
       <c r="J222" s="5"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -16691,29 +17017,27 @@
         <v>0</v>
       </c>
       <c r="B223" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C223" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D223" s="8">
-        <v>4</v>
-      </c>
-      <c r="E223" s="8">
-        <v>8</v>
-      </c>
-      <c r="F223" s="8">
-        <v>16</v>
-      </c>
-      <c r="G223" s="8">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I223" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I223" s="8"/>
       <c r="J223" s="5"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -16722,32 +17046,32 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A224" s="29" t="s">
+      <c r="A224" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="8">
         <v>5</v>
       </c>
-      <c r="C224" s="30">
+      <c r="C224" s="8">
         <v>5</v>
       </c>
-      <c r="D224" s="30">
+      <c r="D224" s="8">
+        <v>5</v>
+      </c>
+      <c r="E224" s="8">
         <v>9</v>
       </c>
-      <c r="E224" s="30">
-        <v>17</v>
-      </c>
-      <c r="F224" s="30">
+      <c r="F224" s="8">
+        <v>17</v>
+      </c>
+      <c r="G224" s="8">
         <v>31</v>
       </c>
-      <c r="G224" s="30">
-        <v>17</v>
-      </c>
-      <c r="H224" s="30" t="s">
+      <c r="H224" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I224" s="30" t="s">
-        <v>320</v>
+      <c r="I224" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="J224" s="5"/>
       <c r="K224" s="1"/>
@@ -16757,32 +17081,32 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A225" s="29" t="s">
+      <c r="A225" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="30">
-        <v>17</v>
-      </c>
-      <c r="C225" s="30">
-        <v>17</v>
-      </c>
-      <c r="D225" s="30">
-        <v>17</v>
-      </c>
-      <c r="E225" s="30">
-        <v>17</v>
-      </c>
-      <c r="F225" s="30">
-        <v>17</v>
-      </c>
-      <c r="G225" s="30">
+      <c r="B225" s="8">
+        <v>17</v>
+      </c>
+      <c r="C225" s="8">
+        <v>17</v>
+      </c>
+      <c r="D225" s="8">
+        <v>17</v>
+      </c>
+      <c r="E225" s="8">
+        <v>17</v>
+      </c>
+      <c r="F225" s="8">
+        <v>17</v>
+      </c>
+      <c r="G225" s="8">
         <v>31</v>
       </c>
-      <c r="H225" s="30" t="s">
+      <c r="H225" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I225" s="30" t="s">
-        <v>318</v>
+      <c r="I225" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -16791,32 +17115,32 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A226" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B226" s="30">
+      <c r="A226" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B226" s="8">
         <v>21</v>
       </c>
-      <c r="C226" s="30">
+      <c r="C226" s="8">
         <v>21</v>
       </c>
-      <c r="D226" s="30">
+      <c r="D226" s="8">
         <v>21</v>
       </c>
-      <c r="E226" s="30">
+      <c r="E226" s="8">
         <v>21</v>
       </c>
-      <c r="F226" s="30">
+      <c r="F226" s="8">
         <v>21</v>
       </c>
-      <c r="G226" s="30">
+      <c r="G226" s="8">
         <v>31</v>
       </c>
-      <c r="H226" s="30" t="s">
+      <c r="H226" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I226" s="30" t="s">
-        <v>319</v>
+      <c r="I226" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -16826,31 +17150,31 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="B227" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C227" s="8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D227" s="8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E227" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F227" s="8">
+        <v>17</v>
+      </c>
+      <c r="G227" s="8">
         <v>31</v>
-      </c>
-      <c r="G227" s="8">
-        <v>17</v>
       </c>
       <c r="H227" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I227" s="8" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="J227" s="5"/>
       <c r="K227" s="1"/>
@@ -16861,31 +17185,31 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B228" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C228" s="8">
         <v>4</v>
       </c>
       <c r="D228" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E228" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F228" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G228" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="J228" s="5"/>
       <c r="K228" s="1"/>
@@ -16896,31 +17220,31 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="B229" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C229" s="8">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D229" s="8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E229" s="8">
         <v>17</v>
       </c>
       <c r="F229" s="8">
+        <v>17</v>
+      </c>
+      <c r="G229" s="8">
         <v>31</v>
       </c>
-      <c r="G229" s="8">
-        <v>17</v>
-      </c>
       <c r="H229" s="8" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="J229" s="5"/>
       <c r="K229" s="1"/>
@@ -16934,28 +17258,28 @@
         <v>0</v>
       </c>
       <c r="B230" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C230" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D230" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E230" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F230" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G230" s="8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="1"/>
@@ -16966,31 +17290,31 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B231" s="8">
-        <v>17</v>
-      </c>
-      <c r="C231" s="8">
-        <v>16</v>
-      </c>
-      <c r="D231" s="8">
-        <v>16</v>
-      </c>
-      <c r="E231" s="8">
-        <v>17</v>
-      </c>
-      <c r="F231" s="8">
-        <v>14</v>
-      </c>
-      <c r="G231" s="8">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="J231" s="5"/>
       <c r="K231" s="1"/>
@@ -17001,31 +17325,31 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B232" s="8">
-        <v>4</v>
-      </c>
-      <c r="C232" s="8">
-        <v>0</v>
-      </c>
-      <c r="D232" s="8">
-        <v>31</v>
-      </c>
-      <c r="E232" s="8">
-        <v>16</v>
-      </c>
-      <c r="F232" s="8">
-        <v>30</v>
-      </c>
-      <c r="G232" s="8">
-        <v>16</v>
+        <v>255</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="J232" s="5"/>
       <c r="K232" s="1"/>
@@ -17036,31 +17360,31 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="B233" s="8">
-        <v>4</v>
-      </c>
-      <c r="C233" s="8">
-        <v>0</v>
-      </c>
-      <c r="D233" s="8">
-        <v>31</v>
-      </c>
-      <c r="E233" s="8">
-        <v>16</v>
-      </c>
-      <c r="F233" s="8">
-        <v>30</v>
-      </c>
-      <c r="G233" s="8">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H233" s="8" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="J233" s="5"/>
       <c r="K233" s="1"/>
@@ -17071,32 +17395,30 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B234" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C234" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D234" s="8">
+        <v>17</v>
+      </c>
+      <c r="E234" s="8">
         <v>31</v>
       </c>
-      <c r="E234" s="8">
+      <c r="F234" s="8">
         <v>16</v>
       </c>
-      <c r="F234" s="8">
-        <v>30</v>
-      </c>
       <c r="G234" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H234" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I234" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I234" s="8"/>
       <c r="J234" s="5"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -17109,29 +17431,27 @@
         <v>0</v>
       </c>
       <c r="B235" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C235" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D235" s="8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E235" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F235" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G235" s="8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I235" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I235" s="8"/>
       <c r="J235" s="5"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -17141,32 +17461,30 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B236" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C236" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D236" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E236" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F236" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G236" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H236" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I236" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I236" s="8"/>
       <c r="J236" s="5"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -17175,29 +17493,29 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A237" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B237" s="30">
-        <v>4</v>
-      </c>
-      <c r="C237" s="30">
+      <c r="A237" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="29">
+        <v>4</v>
+      </c>
+      <c r="C237" s="29">
         <v>14</v>
       </c>
-      <c r="D237" s="30">
+      <c r="D237" s="29">
         <v>14</v>
       </c>
-      <c r="E237" s="30">
+      <c r="E237" s="29">
         <v>14</v>
       </c>
-      <c r="F237" s="30">
+      <c r="F237" s="29">
         <v>31</v>
       </c>
-      <c r="G237" s="30" t="s">
+      <c r="G237" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H237" s="33"/>
-      <c r="I237" s="30" t="s">
+      <c r="H237" s="32"/>
+      <c r="I237" s="29" t="s">
         <v>154</v>
       </c>
       <c r="J237" s="5"/>
@@ -17209,7 +17527,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="B238" s="8">
         <v>10</v>
@@ -17218,23 +17536,21 @@
         <v>0</v>
       </c>
       <c r="D238" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E238" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F238" s="8">
-        <v>4</v>
-      </c>
-      <c r="G238" s="8">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H238" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>205</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I238" s="8"/>
       <c r="J238" s="5"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -17247,29 +17563,27 @@
         <v>0</v>
       </c>
       <c r="B239" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C239" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D239" s="8">
+        <v>17</v>
+      </c>
+      <c r="E239" s="8">
+        <v>17</v>
+      </c>
+      <c r="F239" s="8">
         <v>14</v>
       </c>
-      <c r="E239" s="8">
-        <v>4</v>
-      </c>
-      <c r="F239" s="8">
-        <v>4</v>
-      </c>
-      <c r="G239" s="8">
-        <v>4</v>
+      <c r="G239" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H239" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I239" s="8" t="s">
-        <v>206</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I239" s="8"/>
       <c r="J239" s="5"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -17279,32 +17593,30 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="B240" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C240" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D240" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E240" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F240" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G240" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>207</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I240" s="8"/>
       <c r="J240" s="5"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -17314,32 +17626,30 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B241" s="8">
         <v>18</v>
       </c>
       <c r="C241" s="8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D241" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E241" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F241" s="8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G241" s="8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H241" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I241" s="8"/>
       <c r="J241" s="5"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -17349,32 +17659,30 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B242" s="8">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C242" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D242" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E242" s="8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F242" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G242" s="8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H242" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>209</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I242" s="8"/>
       <c r="J242" s="5"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -17384,32 +17692,30 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B243" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C243" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D243" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E243" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F243" s="8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G243" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H243" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>210</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I243" s="8"/>
       <c r="J243" s="5"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -17419,32 +17725,30 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B244" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C244" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D244" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E244" s="8">
         <v>17</v>
       </c>
       <c r="F244" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G244" s="8">
         <v>17</v>
       </c>
       <c r="H244" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I244" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I244" s="8"/>
       <c r="J244" s="5"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -17454,32 +17758,30 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B245" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C245" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D245" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E245" s="8">
-        <v>17</v>
-      </c>
-      <c r="F245" s="8">
-        <v>17</v>
-      </c>
-      <c r="G245" s="8">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H245" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I245" s="8" t="s">
-        <v>212</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I245" s="8"/>
       <c r="J245" s="5"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -17489,32 +17791,30 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B246" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C246" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D246" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E246" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F246" s="8">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G246" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H246" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I246" s="8" t="s">
-        <v>213</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I246" s="8"/>
       <c r="J246" s="5"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -17524,28 +17824,28 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="B247" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C247" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D247" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E247" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F247" s="8">
-        <v>10</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="G247" s="8">
+        <v>8</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I247" s="8"/>
       <c r="J247" s="5"/>
@@ -17557,7 +17857,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="B248" s="8">
         <v>14</v>
@@ -17566,10 +17866,10 @@
         <v>4</v>
       </c>
       <c r="D248" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E248" s="8">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F248" s="8">
         <v>14</v>
@@ -17580,9 +17880,7 @@
       <c r="H248" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I248" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="I248" s="8"/>
       <c r="J248" s="5"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -17592,32 +17890,30 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="B249" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C249" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D249" s="8">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E249" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F249" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G249" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>215</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I249" s="8"/>
       <c r="J249" s="5"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -17630,29 +17926,27 @@
         <v>262</v>
       </c>
       <c r="B250" s="8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C250" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D250" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E250" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F250" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G250" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I250" s="8"/>
       <c r="J250" s="5"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -17665,29 +17959,27 @@
         <v>263</v>
       </c>
       <c r="B251" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C251" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D251" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E251" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F251" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G251" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H251" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I251" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I251" s="8"/>
       <c r="J251" s="5"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -17697,32 +17989,30 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B252" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C252" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D252" s="8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E252" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F252" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G252" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I252" s="8" t="s">
-        <v>218</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I252" s="8"/>
       <c r="J252" s="5"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -17732,32 +18022,30 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B253" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C253" s="8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D253" s="8">
         <v>10</v>
       </c>
       <c r="E253" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F253" s="8">
         <v>4</v>
       </c>
       <c r="G253" s="8">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I253" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I253" s="8"/>
       <c r="J253" s="5"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -17767,32 +18055,30 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B254" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C254" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D254" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E254" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F254" s="8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G254" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I254" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I254" s="8"/>
       <c r="J254" s="5"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -17802,32 +18088,30 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="B255" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C255" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D255" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E255" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F255" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G255" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>221</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I255" s="8"/>
       <c r="J255" s="5"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -17836,33 +18120,15 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B256" s="8">
-        <v>4</v>
-      </c>
-      <c r="C256" s="8">
-        <v>0</v>
-      </c>
-      <c r="D256" s="8">
-        <v>14</v>
-      </c>
-      <c r="E256" s="8">
-        <v>1</v>
-      </c>
-      <c r="F256" s="8">
-        <v>15</v>
-      </c>
-      <c r="G256" s="8">
-        <v>17</v>
-      </c>
-      <c r="H256" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I256" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="A256" s="7"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
       <c r="J256" s="5"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -17871,33 +18137,15 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257" s="8">
-        <v>4</v>
-      </c>
-      <c r="C257" s="8">
-        <v>0</v>
-      </c>
-      <c r="D257" s="8">
-        <v>14</v>
-      </c>
-      <c r="E257" s="8">
-        <v>1</v>
-      </c>
-      <c r="F257" s="8">
-        <v>15</v>
-      </c>
-      <c r="G257" s="8">
-        <v>17</v>
-      </c>
-      <c r="H257" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I257" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="A257" s="7"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
       <c r="J257" s="5"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -17906,33 +18154,15 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A258" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258" s="8">
-        <v>10</v>
-      </c>
-      <c r="C258" s="8">
-        <v>0</v>
-      </c>
-      <c r="D258" s="8">
-        <v>14</v>
-      </c>
-      <c r="E258" s="8">
-        <v>1</v>
-      </c>
-      <c r="F258" s="8">
-        <v>15</v>
-      </c>
-      <c r="G258" s="8">
-        <v>17</v>
-      </c>
-      <c r="H258" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I258" s="8" t="s">
-        <v>224</v>
-      </c>
+      <c r="A258" s="7"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
       <c r="J258" s="5"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
@@ -17941,33 +18171,15 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259" s="8">
-        <v>18</v>
-      </c>
-      <c r="C259" s="8">
-        <v>0</v>
-      </c>
-      <c r="D259" s="8">
-        <v>14</v>
-      </c>
-      <c r="E259" s="8">
-        <v>1</v>
-      </c>
-      <c r="F259" s="8">
-        <v>15</v>
-      </c>
-      <c r="G259" s="8">
-        <v>17</v>
-      </c>
-      <c r="H259" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I259" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="A259" s="7"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
       <c r="J259" s="5"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -17976,33 +18188,15 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B260" s="8">
-        <v>10</v>
-      </c>
-      <c r="C260" s="8">
-        <v>0</v>
-      </c>
-      <c r="D260" s="8">
-        <v>14</v>
-      </c>
-      <c r="E260" s="8">
-        <v>1</v>
-      </c>
-      <c r="F260" s="8">
-        <v>15</v>
-      </c>
-      <c r="G260" s="8">
-        <v>17</v>
-      </c>
-      <c r="H260" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I260" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="A260" s="7"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="8"/>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
       <c r="J260" s="5"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -18011,33 +18205,15 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B261" s="8">
-        <v>10</v>
-      </c>
-      <c r="C261" s="8">
-        <v>4</v>
-      </c>
-      <c r="D261" s="8">
-        <v>14</v>
-      </c>
-      <c r="E261" s="8">
-        <v>1</v>
-      </c>
-      <c r="F261" s="8">
-        <v>15</v>
-      </c>
-      <c r="G261" s="8">
-        <v>17</v>
-      </c>
-      <c r="H261" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I261" s="8" t="s">
-        <v>227</v>
-      </c>
+      <c r="A261" s="7"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
       <c r="J261" s="5"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -18046,33 +18222,15 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262" s="8">
-        <v>0</v>
-      </c>
-      <c r="C262" s="8">
-        <v>26</v>
-      </c>
-      <c r="D262" s="8">
-        <v>5</v>
-      </c>
-      <c r="E262" s="8">
-        <v>15</v>
-      </c>
-      <c r="F262" s="8">
-        <v>20</v>
-      </c>
-      <c r="G262" s="8">
-        <v>21</v>
-      </c>
-      <c r="H262" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I262" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="A262" s="7"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
       <c r="J262" s="5"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
@@ -18081,33 +18239,15 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="8">
-        <v>0</v>
-      </c>
-      <c r="C263" s="8">
-        <v>14</v>
-      </c>
-      <c r="D263" s="8">
-        <v>16</v>
-      </c>
-      <c r="E263" s="8">
-        <v>17</v>
-      </c>
-      <c r="F263" s="8">
-        <v>14</v>
-      </c>
-      <c r="G263" s="8">
-        <v>4</v>
-      </c>
-      <c r="H263" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I263" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="A263" s="7"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8"/>
+      <c r="I263" s="8"/>
       <c r="J263" s="5"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -18116,33 +18256,15 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B264" s="8">
-        <v>4</v>
-      </c>
-      <c r="C264" s="8">
-        <v>0</v>
-      </c>
-      <c r="D264" s="8">
-        <v>14</v>
-      </c>
-      <c r="E264" s="8">
-        <v>17</v>
-      </c>
-      <c r="F264" s="8">
-        <v>31</v>
-      </c>
-      <c r="G264" s="8">
-        <v>16</v>
-      </c>
-      <c r="H264" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I264" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A264" s="7"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="8"/>
+      <c r="I264" s="8"/>
       <c r="J264" s="5"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
@@ -18151,33 +18273,15 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B265" s="8">
-        <v>4</v>
-      </c>
-      <c r="C265" s="8">
-        <v>0</v>
-      </c>
-      <c r="D265" s="8">
-        <v>14</v>
-      </c>
-      <c r="E265" s="8">
-        <v>17</v>
-      </c>
-      <c r="F265" s="8">
-        <v>31</v>
-      </c>
-      <c r="G265" s="8">
-        <v>16</v>
-      </c>
-      <c r="H265" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I265" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="A265" s="7"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="8"/>
+      <c r="I265" s="8"/>
       <c r="J265" s="5"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -18186,33 +18290,15 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B266" s="8">
-        <v>10</v>
-      </c>
-      <c r="C266" s="8">
-        <v>0</v>
-      </c>
-      <c r="D266" s="8">
-        <v>14</v>
-      </c>
-      <c r="E266" s="8">
-        <v>17</v>
-      </c>
-      <c r="F266" s="8">
-        <v>31</v>
-      </c>
-      <c r="G266" s="8">
-        <v>16</v>
-      </c>
-      <c r="H266" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I266" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="A266" s="7"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="8"/>
+      <c r="I266" s="8"/>
       <c r="J266" s="5"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
@@ -18221,33 +18307,15 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B267" s="8">
-        <v>10</v>
-      </c>
-      <c r="C267" s="8">
-        <v>0</v>
-      </c>
-      <c r="D267" s="8">
-        <v>14</v>
-      </c>
-      <c r="E267" s="8">
-        <v>17</v>
-      </c>
-      <c r="F267" s="8">
-        <v>31</v>
-      </c>
-      <c r="G267" s="8">
-        <v>16</v>
-      </c>
-      <c r="H267" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I267" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="A267" s="7"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="8"/>
       <c r="J267" s="5"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -18256,33 +18324,15 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B268" s="8">
-        <v>4</v>
-      </c>
-      <c r="C268" s="8">
-        <v>0</v>
-      </c>
-      <c r="D268" s="8">
-        <v>4</v>
-      </c>
-      <c r="E268" s="8">
-        <v>12</v>
-      </c>
-      <c r="F268" s="8">
-        <v>4</v>
-      </c>
-      <c r="G268" s="8">
-        <v>4</v>
-      </c>
-      <c r="H268" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I268" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A268" s="7"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+      <c r="H268" s="8"/>
+      <c r="I268" s="8"/>
       <c r="J268" s="5"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -18291,33 +18341,15 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B269" s="8">
-        <v>4</v>
-      </c>
-      <c r="C269" s="8">
-        <v>0</v>
-      </c>
-      <c r="D269" s="8">
-        <v>4</v>
-      </c>
-      <c r="E269" s="8">
-        <v>12</v>
-      </c>
-      <c r="F269" s="8">
-        <v>4</v>
-      </c>
-      <c r="G269" s="8">
-        <v>4</v>
-      </c>
-      <c r="H269" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I269" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="A269" s="7"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="8"/>
       <c r="J269" s="5"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
@@ -18326,33 +18358,15 @@
       <c r="O269" s="1"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B270" s="8">
-        <v>10</v>
-      </c>
-      <c r="C270" s="8">
-        <v>0</v>
-      </c>
-      <c r="D270" s="8">
-        <v>4</v>
-      </c>
-      <c r="E270" s="8">
-        <v>12</v>
-      </c>
-      <c r="F270" s="8">
-        <v>4</v>
-      </c>
-      <c r="G270" s="8">
-        <v>4</v>
-      </c>
-      <c r="H270" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I270" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="A270" s="7"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="8"/>
       <c r="J270" s="5"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -18361,33 +18375,15 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="8">
-        <v>10</v>
-      </c>
-      <c r="C271" s="8">
-        <v>0</v>
-      </c>
-      <c r="D271" s="8">
-        <v>4</v>
-      </c>
-      <c r="E271" s="8">
-        <v>12</v>
-      </c>
-      <c r="F271" s="8">
-        <v>4</v>
-      </c>
-      <c r="G271" s="8">
-        <v>4</v>
-      </c>
-      <c r="H271" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I271" s="8" t="s">
-        <v>236</v>
-      </c>
+      <c r="A271" s="7"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
       <c r="J271" s="5"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
@@ -18396,33 +18392,15 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" s="8">
-        <v>20</v>
-      </c>
-      <c r="C272" s="8">
-        <v>8</v>
-      </c>
-      <c r="D272" s="8">
-        <v>20</v>
-      </c>
-      <c r="E272" s="8">
-        <v>2</v>
-      </c>
-      <c r="F272" s="8">
-        <v>15</v>
-      </c>
-      <c r="G272" s="8">
-        <v>17</v>
-      </c>
-      <c r="H272" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I272" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="A272" s="7"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="8"/>
+      <c r="I272" s="8"/>
       <c r="J272" s="5"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -18431,33 +18409,15 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B273" s="8">
-        <v>18</v>
-      </c>
-      <c r="C273" s="8">
-        <v>0</v>
-      </c>
-      <c r="D273" s="8">
-        <v>22</v>
-      </c>
-      <c r="E273" s="8">
-        <v>25</v>
-      </c>
-      <c r="F273" s="8">
-        <v>17</v>
-      </c>
-      <c r="G273" s="8">
-        <v>17</v>
-      </c>
-      <c r="H273" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I273" s="8" t="s">
-        <v>238</v>
-      </c>
+      <c r="A273" s="7"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="8"/>
       <c r="J273" s="5"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -18466,405 +18426,157 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B274" s="8">
-        <v>4</v>
-      </c>
-      <c r="C274" s="8">
-        <v>0</v>
-      </c>
-      <c r="D274" s="8">
-        <v>14</v>
-      </c>
-      <c r="E274" s="8">
-        <v>17</v>
-      </c>
-      <c r="F274" s="8">
-        <v>17</v>
-      </c>
-      <c r="G274" s="8">
-        <v>17</v>
-      </c>
-      <c r="H274" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I274" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="A274" s="7"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B275" s="8">
-        <v>4</v>
-      </c>
-      <c r="C275" s="8">
-        <v>0</v>
-      </c>
-      <c r="D275" s="8">
-        <v>14</v>
-      </c>
-      <c r="E275" s="8">
-        <v>17</v>
-      </c>
-      <c r="F275" s="8">
-        <v>17</v>
-      </c>
-      <c r="G275" s="8">
-        <v>17</v>
-      </c>
-      <c r="H275" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I275" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="A275" s="7"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A276" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B276" s="8">
-        <v>4</v>
-      </c>
-      <c r="C276" s="8">
-        <v>10</v>
-      </c>
-      <c r="D276" s="8">
-        <v>0</v>
-      </c>
-      <c r="E276" s="8">
-        <v>14</v>
-      </c>
-      <c r="F276" s="8">
-        <v>17</v>
-      </c>
-      <c r="G276" s="8">
-        <v>17</v>
-      </c>
-      <c r="H276" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I276" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="A276" s="7"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" s="8">
-        <v>13</v>
-      </c>
-      <c r="C277" s="8">
-        <v>18</v>
-      </c>
-      <c r="D277" s="8">
-        <v>0</v>
-      </c>
-      <c r="E277" s="8">
-        <v>14</v>
-      </c>
-      <c r="F277" s="8">
-        <v>17</v>
-      </c>
-      <c r="G277" s="8">
-        <v>17</v>
-      </c>
-      <c r="H277" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I277" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="A277" s="7"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="8"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278" s="8">
-        <v>10</v>
-      </c>
-      <c r="C278" s="8">
-        <v>0</v>
-      </c>
-      <c r="D278" s="8">
-        <v>14</v>
-      </c>
-      <c r="E278" s="8">
-        <v>17</v>
-      </c>
-      <c r="F278" s="8">
-        <v>17</v>
-      </c>
-      <c r="G278" s="8">
-        <v>17</v>
-      </c>
-      <c r="H278" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I278" s="8" t="s">
-        <v>243</v>
-      </c>
+      <c r="A278" s="7"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+      <c r="H278" s="8"/>
+      <c r="I278" s="8"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A279" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279" s="8">
-        <v>0</v>
-      </c>
-      <c r="C279" s="8">
-        <v>4</v>
-      </c>
-      <c r="D279" s="8">
-        <v>0</v>
-      </c>
-      <c r="E279" s="8">
-        <v>31</v>
-      </c>
-      <c r="F279" s="8">
-        <v>0</v>
-      </c>
-      <c r="G279" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H279" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="A279" s="7"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+      <c r="H279" s="8"/>
       <c r="I279" s="8"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A280" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B280" s="8">
-        <v>2</v>
-      </c>
-      <c r="C280" s="8">
-        <v>4</v>
-      </c>
-      <c r="D280" s="8">
-        <v>14</v>
-      </c>
-      <c r="E280" s="8">
-        <v>21</v>
-      </c>
-      <c r="F280" s="8">
-        <v>14</v>
-      </c>
-      <c r="G280" s="8">
-        <v>4</v>
-      </c>
-      <c r="H280" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I280" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="A280" s="7"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+      <c r="H280" s="8"/>
+      <c r="I280" s="8"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B281" s="8">
-        <v>4</v>
-      </c>
-      <c r="C281" s="8">
-        <v>0</v>
-      </c>
-      <c r="D281" s="8">
-        <v>17</v>
-      </c>
-      <c r="E281" s="8">
-        <v>17</v>
-      </c>
-      <c r="F281" s="8">
-        <v>17</v>
-      </c>
-      <c r="G281" s="8">
-        <v>19</v>
-      </c>
-      <c r="H281" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I281" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="A281" s="7"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B282" s="8">
-        <v>4</v>
-      </c>
-      <c r="C282" s="8">
-        <v>0</v>
-      </c>
-      <c r="D282" s="8">
-        <v>17</v>
-      </c>
-      <c r="E282" s="8">
-        <v>17</v>
-      </c>
-      <c r="F282" s="8">
-        <v>17</v>
-      </c>
-      <c r="G282" s="8">
-        <v>19</v>
-      </c>
-      <c r="H282" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I282" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="A282" s="7"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+      <c r="H282" s="8"/>
+      <c r="I282" s="8"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B283" s="8">
-        <v>10</v>
-      </c>
-      <c r="C283" s="8">
-        <v>0</v>
-      </c>
-      <c r="D283" s="8">
-        <v>17</v>
-      </c>
-      <c r="E283" s="8">
-        <v>17</v>
-      </c>
-      <c r="F283" s="8">
-        <v>17</v>
-      </c>
-      <c r="G283" s="8">
-        <v>19</v>
-      </c>
-      <c r="H283" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I283" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="A283" s="7"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B284" s="8">
-        <v>10</v>
-      </c>
-      <c r="C284" s="8">
-        <v>0</v>
-      </c>
-      <c r="D284" s="8">
-        <v>17</v>
-      </c>
-      <c r="E284" s="8">
-        <v>17</v>
-      </c>
-      <c r="F284" s="8">
-        <v>17</v>
-      </c>
-      <c r="G284" s="8">
-        <v>19</v>
-      </c>
-      <c r="H284" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I284" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="A284" s="7"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A285" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B285" s="8">
-        <v>4</v>
-      </c>
-      <c r="C285" s="8">
-        <v>0</v>
-      </c>
-      <c r="D285" s="8">
-        <v>17</v>
-      </c>
-      <c r="E285" s="8">
-        <v>17</v>
-      </c>
-      <c r="F285" s="8">
-        <v>15</v>
-      </c>
-      <c r="G285" s="8">
-        <v>1</v>
-      </c>
-      <c r="H285" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I285" s="8" t="s">
-        <v>250</v>
-      </c>
+      <c r="A285" s="7"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286" s="8">
-        <v>12</v>
-      </c>
-      <c r="C286" s="8">
-        <v>4</v>
-      </c>
-      <c r="D286" s="8">
-        <v>6</v>
-      </c>
-      <c r="E286" s="8">
-        <v>5</v>
-      </c>
-      <c r="F286" s="8">
-        <v>6</v>
-      </c>
-      <c r="G286" s="8">
-        <v>4</v>
-      </c>
-      <c r="H286" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I286" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="A286" s="7"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="I286" s="8"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="8">
-        <v>10</v>
-      </c>
-      <c r="C287" s="8">
-        <v>0</v>
-      </c>
-      <c r="D287" s="8">
-        <v>17</v>
-      </c>
-      <c r="E287" s="8">
-        <v>17</v>
-      </c>
-      <c r="F287" s="8">
-        <v>15</v>
-      </c>
-      <c r="G287" s="8">
-        <v>1</v>
-      </c>
-      <c r="H287" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="A287" s="7"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="8"/>
       <c r="I287" s="8"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -18906,6 +18618,61 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K3:O10 P3:P10" evalError="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!save_new_symbol_and_copy_to_VSC">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId5" name="Button 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!clear_test_symbol">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
